--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15728</v>
+        <v>15727</v>
       </c>
       <c r="D2" t="n">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="E2" t="n">
-        <v>24977954</v>
+        <v>24969039</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30721</v>
+        <v>30720</v>
       </c>
       <c r="D4" t="n">
         <v>10887</v>
       </c>
       <c r="E4" t="n">
-        <v>47088071</v>
+        <v>47086571</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72894</v>
+        <v>72891</v>
       </c>
       <c r="D7" t="n">
-        <v>31024</v>
+        <v>31023</v>
       </c>
       <c r="E7" t="n">
-        <v>111316989</v>
+        <v>111313801</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>119266</v>
+        <v>119255</v>
       </c>
       <c r="D8" t="n">
-        <v>38084</v>
+        <v>38083</v>
       </c>
       <c r="E8" t="n">
-        <v>251712115</v>
+        <v>251695615</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="D9" t="n">
-        <v>9556</v>
+        <v>9557</v>
       </c>
       <c r="E9" t="n">
-        <v>85550053</v>
+        <v>85552253</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>131223</v>
       </c>
       <c r="D10" t="n">
-        <v>27727</v>
+        <v>27728</v>
       </c>
       <c r="E10" t="n">
         <v>454412709</v>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15169</v>
+        <v>15168</v>
       </c>
       <c r="D11" t="n">
         <v>4489</v>
       </c>
       <c r="E11" t="n">
-        <v>26099634</v>
+        <v>26099684</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>72710</v>
+        <v>72715</v>
       </c>
       <c r="D14" t="n">
-        <v>23567</v>
+        <v>23569</v>
       </c>
       <c r="E14" t="n">
-        <v>136866496</v>
+        <v>136881268</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34924</v>
+        <v>34927</v>
       </c>
       <c r="D15" t="n">
-        <v>10655</v>
+        <v>10657</v>
       </c>
       <c r="E15" t="n">
-        <v>67245116</v>
+        <v>67247816</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>72186</v>
+        <v>72189</v>
       </c>
       <c r="D17" t="n">
-        <v>18314</v>
+        <v>18315</v>
       </c>
       <c r="E17" t="n">
-        <v>112479350</v>
+        <v>112490146</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59001</v>
+        <v>58998</v>
       </c>
       <c r="D19" t="n">
         <v>12427</v>
       </c>
       <c r="E19" t="n">
-        <v>114295615</v>
+        <v>114283809</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80431</v>
+        <v>80430</v>
       </c>
       <c r="D20" t="n">
         <v>23511</v>
       </c>
       <c r="E20" t="n">
-        <v>138918255</v>
+        <v>138918240</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4712</v>
+        <v>4709</v>
       </c>
       <c r="D28" t="n">
         <v>1449</v>
       </c>
       <c r="E28" t="n">
-        <v>8835538</v>
+        <v>8831038</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37012</v>
+        <v>37013</v>
       </c>
       <c r="D29" t="n">
         <v>7775</v>
       </c>
       <c r="E29" t="n">
-        <v>118451412</v>
+        <v>118452912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13781</v>
+        <v>13782</v>
       </c>
       <c r="D33" t="n">
         <v>4591</v>
       </c>
       <c r="E33" t="n">
-        <v>26323975</v>
+        <v>26325441</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>2658</v>
       </c>
       <c r="E36" t="n">
-        <v>15576167</v>
+        <v>15575061</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11249</v>
+        <v>11250</v>
       </c>
       <c r="D42" t="n">
         <v>4031</v>
       </c>
       <c r="E42" t="n">
-        <v>16220417</v>
+        <v>16221836</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38112</v>
+        <v>38111</v>
       </c>
       <c r="D46" t="n">
         <v>12742</v>
       </c>
       <c r="E46" t="n">
-        <v>81739819</v>
+        <v>81729819</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6476</v>
+        <v>6475</v>
       </c>
       <c r="D47" t="n">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E47" t="n">
-        <v>12030069</v>
+        <v>12028650</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20597</v>
+        <v>20598</v>
       </c>
       <c r="D52" t="n">
         <v>7021</v>
       </c>
       <c r="E52" t="n">
-        <v>40225684</v>
+        <v>40226132</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="D53" t="n">
         <v>2800</v>
       </c>
       <c r="E53" t="n">
-        <v>15114479</v>
+        <v>15115979</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11389</v>
+        <v>11390</v>
       </c>
       <c r="D54" t="n">
         <v>3024</v>
       </c>
       <c r="E54" t="n">
-        <v>18069041</v>
+        <v>18069636</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17693</v>
+        <v>17692</v>
       </c>
       <c r="D56" t="n">
         <v>4017</v>
       </c>
       <c r="E56" t="n">
-        <v>32868119</v>
+        <v>32867524</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12948</v>
+        <v>12949</v>
       </c>
       <c r="D69" t="n">
         <v>4235</v>
       </c>
       <c r="E69" t="n">
-        <v>24094394</v>
+        <v>24094501</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D87" t="n">
         <v>389</v>
       </c>
       <c r="E87" t="n">
-        <v>2611177</v>
+        <v>2611989</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5996</v>
+        <v>5995</v>
       </c>
       <c r="D100" t="n">
         <v>1810</v>
       </c>
       <c r="E100" t="n">
-        <v>10225415</v>
+        <v>10224165</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13532</v>
+        <v>13531</v>
       </c>
       <c r="D104" t="n">
         <v>4279</v>
       </c>
       <c r="E104" t="n">
-        <v>25031317</v>
+        <v>25029777</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17059</v>
+        <v>17058</v>
       </c>
       <c r="D106" t="n">
         <v>4530</v>
       </c>
       <c r="E106" t="n">
-        <v>26872640</v>
+        <v>26871140</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23957</v>
+        <v>23958</v>
       </c>
       <c r="D107" t="n">
         <v>10977</v>
       </c>
       <c r="E107" t="n">
-        <v>32584811</v>
+        <v>32585291</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>24574</v>
+        <v>24575</v>
       </c>
       <c r="D108" t="n">
-        <v>5031</v>
+        <v>5032</v>
       </c>
       <c r="E108" t="n">
-        <v>45378280</v>
+        <v>45379780</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>62807</v>
+        <v>62801</v>
       </c>
       <c r="D150" t="n">
         <v>20153</v>
       </c>
       <c r="E150" t="n">
-        <v>119780699</v>
+        <v>119773069</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23222</v>
+        <v>23219</v>
       </c>
       <c r="D151" t="n">
         <v>5047</v>
       </c>
       <c r="E151" t="n">
-        <v>41390336</v>
+        <v>41385836</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>59472</v>
+        <v>59474</v>
       </c>
       <c r="D152" t="n">
-        <v>12684</v>
+        <v>12686</v>
       </c>
       <c r="E152" t="n">
-        <v>194363611</v>
+        <v>194367147</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29371</v>
+        <v>29368</v>
       </c>
       <c r="D156" t="n">
-        <v>9442</v>
+        <v>9441</v>
       </c>
       <c r="E156" t="n">
-        <v>54629124</v>
+        <v>54626122</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24090</v>
+        <v>24092</v>
       </c>
       <c r="D160" t="n">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="E160" t="n">
-        <v>46766610</v>
+        <v>46768542</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>46660</v>
+        <v>46661</v>
       </c>
       <c r="D161" t="n">
-        <v>13739</v>
+        <v>13740</v>
       </c>
       <c r="E161" t="n">
-        <v>75831242</v>
+        <v>75831908</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D165" t="n">
         <v>408</v>
       </c>
       <c r="E165" t="n">
-        <v>2315431</v>
+        <v>2305108</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>180683</v>
+        <v>180682</v>
       </c>
       <c r="D167" t="n">
-        <v>54466</v>
+        <v>54468</v>
       </c>
       <c r="E167" t="n">
-        <v>392770324</v>
+        <v>392766708</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>351135</v>
+        <v>351132</v>
       </c>
       <c r="D168" t="n">
-        <v>58990</v>
+        <v>58991</v>
       </c>
       <c r="E168" t="n">
-        <v>691782039</v>
+        <v>691770856</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>174357</v>
+        <v>174356</v>
       </c>
       <c r="D169" t="n">
-        <v>35291</v>
+        <v>35290</v>
       </c>
       <c r="E169" t="n">
-        <v>675175861</v>
+        <v>675174361</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>67081</v>
+        <v>67083</v>
       </c>
       <c r="D170" t="n">
-        <v>18255</v>
+        <v>18257</v>
       </c>
       <c r="E170" t="n">
-        <v>135497601</v>
+        <v>135501701</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33186</v>
+        <v>33187</v>
       </c>
       <c r="D172" t="n">
-        <v>10604</v>
+        <v>10605</v>
       </c>
       <c r="E172" t="n">
-        <v>66875448</v>
+        <v>66876948</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>219783</v>
+        <v>219777</v>
       </c>
       <c r="D173" t="n">
-        <v>64856</v>
+        <v>64858</v>
       </c>
       <c r="E173" t="n">
-        <v>391376785</v>
+        <v>391363321</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>70716</v>
+        <v>70714</v>
       </c>
       <c r="D174" t="n">
-        <v>16551</v>
+        <v>16552</v>
       </c>
       <c r="E174" t="n">
-        <v>160077078</v>
+        <v>160074078</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>62523</v>
+        <v>62519</v>
       </c>
       <c r="D176" t="n">
         <v>15776</v>
       </c>
       <c r="E176" t="n">
-        <v>94840148</v>
+        <v>94836715</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7603,10 +7603,10 @@
         <v>66177</v>
       </c>
       <c r="D177" t="n">
-        <v>28522</v>
+        <v>28523</v>
       </c>
       <c r="E177" t="n">
-        <v>89793322</v>
+        <v>89793823</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>132471</v>
+        <v>132470</v>
       </c>
       <c r="D178" t="n">
-        <v>26896</v>
+        <v>26897</v>
       </c>
       <c r="E178" t="n">
-        <v>254520294</v>
+        <v>254512122</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>97208</v>
+        <v>97205</v>
       </c>
       <c r="D179" t="n">
         <v>27739</v>
       </c>
       <c r="E179" t="n">
-        <v>187023402</v>
+        <v>187019902</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -10022,10 +10022,10 @@
         <v>39449</v>
       </c>
       <c r="D236" t="n">
-        <v>12897</v>
+        <v>12898</v>
       </c>
       <c r="E236" t="n">
-        <v>79127557</v>
+        <v>79128086</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10101,13 +10101,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>40163</v>
+        <v>40166</v>
       </c>
       <c r="D238" t="n">
-        <v>8872</v>
+        <v>8874</v>
       </c>
       <c r="E238" t="n">
-        <v>132359964</v>
+        <v>132362267</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>17252</v>
+        <v>17251</v>
       </c>
       <c r="D242" t="n">
-        <v>5605</v>
+        <v>5606</v>
       </c>
       <c r="E242" t="n">
-        <v>34062571</v>
+        <v>34062405</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8150</v>
+        <v>8151</v>
       </c>
       <c r="D243" t="n">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="E243" t="n">
-        <v>15009881</v>
+        <v>15010881</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10429,13 +10429,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>15578</v>
+        <v>15579</v>
       </c>
       <c r="D246" t="n">
         <v>3375</v>
       </c>
       <c r="E246" t="n">
-        <v>29798102</v>
+        <v>29806442</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>23935</v>
+        <v>23934</v>
       </c>
       <c r="D250" t="n">
         <v>8458</v>
       </c>
       <c r="E250" t="n">
-        <v>34738444</v>
+        <v>34738409</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10962,13 +10962,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>15842</v>
+        <v>15844</v>
       </c>
       <c r="D259" t="n">
         <v>5538</v>
       </c>
       <c r="E259" t="n">
-        <v>26805381</v>
+        <v>26808381</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11126,13 +11126,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>29249</v>
+        <v>29248</v>
       </c>
       <c r="D263" t="n">
         <v>7479</v>
       </c>
       <c r="E263" t="n">
-        <v>42698931</v>
+        <v>42698696</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>38370</v>
+        <v>38371</v>
       </c>
       <c r="D264" t="n">
         <v>16984</v>
       </c>
       <c r="E264" t="n">
-        <v>50552197</v>
+        <v>50552851</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>38814</v>
+        <v>38813</v>
       </c>
       <c r="D265" t="n">
         <v>8313</v>
       </c>
       <c r="E265" t="n">
-        <v>70668750</v>
+        <v>70668096</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>65056</v>
+        <v>65057</v>
       </c>
       <c r="D266" t="n">
-        <v>19559</v>
+        <v>19560</v>
       </c>
       <c r="E266" t="n">
-        <v>107546116</v>
+        <v>107546151</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>18565</v>
+        <v>18566</v>
       </c>
       <c r="D267" t="n">
-        <v>6931</v>
+        <v>6932</v>
       </c>
       <c r="E267" t="n">
-        <v>30256776</v>
+        <v>30257719</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>34213</v>
       </c>
       <c r="E273" t="n">
-        <v>215360656</v>
+        <v>215360795</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24291</v>
+        <v>24289</v>
       </c>
       <c r="D274" t="n">
         <v>5708</v>
       </c>
       <c r="E274" t="n">
-        <v>44918053</v>
+        <v>44907030</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11741,13 +11741,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>18992</v>
+        <v>18994</v>
       </c>
       <c r="D278" t="n">
-        <v>6209</v>
+        <v>6211</v>
       </c>
       <c r="E278" t="n">
-        <v>31949825</v>
+        <v>31951810</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>58094</v>
+        <v>58092</v>
       </c>
       <c r="D279" t="n">
-        <v>18618</v>
+        <v>18617</v>
       </c>
       <c r="E279" t="n">
-        <v>110318714</v>
+        <v>110316132</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>27514</v>
+        <v>27515</v>
       </c>
       <c r="D280" t="n">
-        <v>8541</v>
+        <v>8542</v>
       </c>
       <c r="E280" t="n">
-        <v>48867691</v>
+        <v>48878014</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11905,13 +11905,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>36570</v>
+        <v>36569</v>
       </c>
       <c r="D282" t="n">
         <v>9497</v>
       </c>
       <c r="E282" t="n">
-        <v>51630106</v>
+        <v>51628872</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>19142</v>
       </c>
       <c r="E283" t="n">
-        <v>56264704</v>
+        <v>56264203</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>67489</v>
+        <v>67491</v>
       </c>
       <c r="D285" t="n">
-        <v>19747</v>
+        <v>19748</v>
       </c>
       <c r="E285" t="n">
-        <v>105938338</v>
+        <v>105938913</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>26332</v>
+        <v>26330</v>
       </c>
       <c r="D298" t="n">
         <v>8764</v>
       </c>
       <c r="E298" t="n">
-        <v>52086352</v>
+        <v>52089042</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9663</v>
+        <v>9665</v>
       </c>
       <c r="D299" t="n">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="E299" t="n">
-        <v>19421628</v>
+        <v>19424628</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -13012,13 +13012,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>63356</v>
+        <v>63357</v>
       </c>
       <c r="D309" t="n">
-        <v>25302</v>
+        <v>25303</v>
       </c>
       <c r="E309" t="n">
-        <v>96927287</v>
+        <v>96928787</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -13094,13 +13094,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>45154</v>
+        <v>45151</v>
       </c>
       <c r="D311" t="n">
-        <v>8886</v>
+        <v>8884</v>
       </c>
       <c r="E311" t="n">
-        <v>91561855</v>
+        <v>91548855</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>108361</v>
       </c>
       <c r="D312" t="n">
-        <v>22144</v>
+        <v>22143</v>
       </c>
       <c r="E312" t="n">
         <v>370252304</v>
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>12762</v>
+        <v>12760</v>
       </c>
       <c r="D313" t="n">
         <v>3596</v>
       </c>
       <c r="E313" t="n">
-        <v>22272753</v>
+        <v>22268703</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>63114</v>
+        <v>63111</v>
       </c>
       <c r="D316" t="n">
-        <v>19883</v>
+        <v>19882</v>
       </c>
       <c r="E316" t="n">
-        <v>117197611</v>
+        <v>117193372</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>35686</v>
+        <v>35685</v>
       </c>
       <c r="D317" t="n">
-        <v>10325</v>
+        <v>10326</v>
       </c>
       <c r="E317" t="n">
-        <v>69230727</v>
+        <v>69229417</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>39652</v>
+        <v>39654</v>
       </c>
       <c r="D319" t="n">
-        <v>9824</v>
+        <v>9825</v>
       </c>
       <c r="E319" t="n">
-        <v>58438580</v>
+        <v>58440366</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13463,13 +13463,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>39309</v>
+        <v>39310</v>
       </c>
       <c r="D320" t="n">
         <v>17203</v>
       </c>
       <c r="E320" t="n">
-        <v>52179282</v>
+        <v>52180782</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13504,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="D321" t="n">
-        <v>8990</v>
+        <v>8992</v>
       </c>
       <c r="E321" t="n">
-        <v>86088625</v>
+        <v>86109259</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>67095</v>
+        <v>67093</v>
       </c>
       <c r="D322" t="n">
         <v>19307</v>
       </c>
       <c r="E322" t="n">
-        <v>110654084</v>
+        <v>110653032</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
